--- a/iotPins.xlsx
+++ b/iotPins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/g00467621_atu_ie/Documents/Year_2_Semester_1/Internet of Things/project code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/g00467621_atu_ie/Documents/Year_2_Semester_1/Internet of Things/IotRepo/IotRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C853DC8E-514D-484A-99A5-BE8FBF649057}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B5A5DBB-CD73-436D-866D-40F8AF08904C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="6135" windowHeight="15585" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Component</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>GPS</t>
-  </si>
-  <si>
-    <t>VP</t>
   </si>
   <si>
     <t>BUZZER</t>
@@ -931,7 +928,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -966,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -978,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -992,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1004,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1016,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1028,7 +1025,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1040,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1052,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1064,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1078,19 +1075,19 @@
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9">
         <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1102,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1114,7 +1111,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1126,7 +1123,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1140,7 +1137,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1152,7 +1149,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1166,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1178,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -1200,37 +1197,29 @@
       <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="26">
-        <v>13</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>34</v>
-      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="C23" s="32">
         <v>32</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/iotPins.xlsx
+++ b/iotPins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/g00467621_atu_ie/Documents/Year_2_Semester_1/Internet of Things/IotRepo/IotRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B5A5DBB-CD73-436D-866D-40F8AF08904C}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75798D57-7C86-4E5C-8636-5421DCE59DB1}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="6135" windowHeight="15585" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Component</t>
   </si>
@@ -606,6 +606,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91D7726-310A-4D25-BFC0-6D55F749DF67}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +942,7 @@
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -951,8 +955,20 @@
       <c r="D1" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>20</v>
+      </c>
+      <c r="M1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -965,8 +981,20 @@
       <c r="D2" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
         <v>5</v>
@@ -977,8 +1005,20 @@
       <c r="D3" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1031,20 @@
       <c r="D4" s="41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="43" t="s">
         <v>12</v>
@@ -1003,32 +1055,68 @@
       <c r="D5" s="44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="44">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="44">
+        <v>13</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>16</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
       <c r="B8" s="43" t="s">
         <v>10</v>
@@ -1039,8 +1127,20 @@
       <c r="D8" s="44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="43" t="s">
         <v>11</v>
@@ -1051,8 +1151,20 @@
       <c r="D9" s="44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45"/>
       <c r="B10" s="46" t="s">
         <v>13</v>
@@ -1063,8 +1175,20 @@
       <c r="D10" s="47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="12" t="s">
         <v>31</v>
@@ -1090,7 +1214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="12" t="s">
         <v>16</v>
@@ -1102,7 +1226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="12" t="s">
         <v>17</v>
@@ -1114,7 +1238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="11" t="s">
         <v>18</v>
@@ -1126,7 +1250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>19</v>
       </c>
@@ -1197,16 +1321,24 @@
       <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="23">
+        <v>17</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="26">
+        <v>16</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">

--- a/iotPins.xlsx
+++ b/iotPins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/g00467621_atu_ie/Documents/Year_2_Semester_1/Internet of Things/IotRepo/IotRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75798D57-7C86-4E5C-8636-5421DCE59DB1}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4927FB7A-0891-4691-95C6-14895B10D441}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Component</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>3.3v</t>
+  </si>
+  <si>
+    <t>5v</t>
   </si>
 </sst>
 </file>
@@ -606,10 +612,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,7 +934,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +983,9 @@
       <c r="D2" s="20" t="s">
         <v>33</v>
       </c>
+      <c r="E2" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -1201,6 +1206,9 @@
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -1263,8 +1271,11 @@
       <c r="D16" s="35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
       <c r="B17" s="37" t="s">
         <v>20</v>
@@ -1276,7 +1287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>21</v>
       </c>
@@ -1289,8 +1300,11 @@
       <c r="D18" s="50" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E18" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
       <c r="B19" s="52" t="s">
         <v>23</v>
@@ -1302,7 +1316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="54"/>
       <c r="B20" s="55" t="s">
         <v>24</v>
@@ -1314,7 +1328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>28</v>
       </c>
@@ -1327,8 +1341,11 @@
       <c r="D21" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="25" t="s">
         <v>25</v>
@@ -1340,7 +1357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>29</v>
       </c>
@@ -1354,39 +1371,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="C32"/>
     </row>

--- a/iotPins.xlsx
+++ b/iotPins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/g00467621_atu_ie/Documents/Year_2_Semester_1/Internet of Things/IotRepo/IotRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4927FB7A-0891-4691-95C6-14895B10D441}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61B04DA6-5CB2-4318-B983-C09C0ECD5A1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Component</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Pin</t>
   </si>
   <si>
-    <t>esp32</t>
-  </si>
-  <si>
     <t>Ultrsonic</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>5v</t>
+  </si>
+  <si>
+    <t>esp32-Now1</t>
+  </si>
+  <si>
+    <t>esp32-Now2</t>
+  </si>
+  <si>
+    <t>esp32-Main</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,18 +225,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF663300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -418,11 +418,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,27 +496,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,15 +505,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,31 +550,58 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,479 +943,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91D7726-310A-4D25-BFC0-6D55F749DF67}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1">
+      <c r="B2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="40">
+        <v>14</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="25">
+        <v>12</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="44">
+        <v>34</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="28">
+        <v>14</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>16</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="47">
+        <v>32</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
         <v>0</v>
       </c>
-      <c r="I1">
-        <v>10</v>
-      </c>
-      <c r="K1">
-        <v>20</v>
-      </c>
-      <c r="M1">
+      <c r="J7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="16">
+        <v>21</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="48"/>
+      <c r="H10" s="49" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16">
-        <v>14</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>11</v>
-      </c>
-      <c r="K2">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19">
-        <v>34</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="K3">
+      <c r="I10" s="50">
+        <v>25</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="50">
+        <v>26</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G12" s="48"/>
+      <c r="H12" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="50">
+        <v>27</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="19">
         <v>22</v>
       </c>
-      <c r="M3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="41">
-        <v>18</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="44">
-        <v>5</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="44">
-        <v>33</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="44">
-        <v>13</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>26</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="44">
-        <v>4</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="44">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>28</v>
-      </c>
-      <c r="M9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="47">
-        <v>2</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>29</v>
-      </c>
-      <c r="M10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9">
-        <v>25</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="9">
-        <v>26</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9">
-        <v>27</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="35">
-        <v>19</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="38">
-        <v>23</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="23">
-        <v>17</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="26">
-        <v>16</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="32">
-        <v>32</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J13" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="C32"/>
     </row>

--- a/iotPins.xlsx
+++ b/iotPins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/g00467621_atu_ie/Documents/Year_2_Semester_1/Internet of Things/IotRepo/IotRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{A5AD51A3-CA38-426B-B15F-10B9B4023FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61B04DA6-5CB2-4318-B983-C09C0ECD5A1D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{5F5F6FF9-A5AD-4607-91E4-89633B26F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB5D2F3-4D63-4879-960D-56790C5676E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Component</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>esp32-Main</t>
+  </si>
+  <si>
+    <t>DHT11</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>3.3V</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +238,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2CF0EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -437,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,33 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,9 +559,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,37 +568,97 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,6 +669,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2CF0EB"/>
       <color rgb="FF663300"/>
     </mruColors>
   </colors>
@@ -943,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91D7726-310A-4D25-BFC0-6D55F749DF67}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,314 +1018,333 @@
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="16">
         <v>14</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="22">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="25">
-        <v>12</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="55" t="s">
+      <c r="J2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="65">
+        <v>32</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="19">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43" t="s">
+      <c r="D3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="25">
+        <v>5</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="25">
+        <v>17</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="25">
+        <v>16</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="25">
         <v>4</v>
       </c>
-      <c r="C3" s="44">
-        <v>34</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="28">
-        <v>14</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="J6" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="9">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9">
-        <v>16</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="47">
-        <v>32</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="12" t="s">
+      <c r="D7" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="25">
         <v>0</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="49">
+        <v>2</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="52">
+        <v>21</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="54"/>
+      <c r="H10" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="56">
+        <v>25</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G11" s="54"/>
+      <c r="H11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="56">
+        <v>26</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="G12" s="54"/>
+      <c r="H12" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="56">
+        <v>27</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="57"/>
+      <c r="H13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="59">
         <v>22</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="11" t="s">
+      <c r="J13" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="39">
         <v>12</v>
       </c>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="J14" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="60"/>
+      <c r="H15" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="62">
         <v>14</v>
       </c>
-      <c r="I9" s="16">
-        <v>21</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="G10" s="48"/>
-      <c r="H10" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="50">
-        <v>25</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="G11" s="48"/>
-      <c r="H11" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="50">
-        <v>26</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="G12" s="48"/>
-      <c r="H12" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="50">
-        <v>27</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="19">
-        <v>22</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="J15" s="62" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1317,16 +1394,22 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{47855545-00bb-4800-a65f-e79104ec0fc4}" enabled="0" method="" siteId="{47855545-00bb-4800-a65f-e79104ec0fc4}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/iotPins.xlsx
+++ b/iotPins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/g00467621_atu_ie/Documents/Year_2_Semester_1/Internet of Things/IotRepo/IotRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{5F5F6FF9-A5AD-4607-91E4-89633B26F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB5D2F3-4D63-4879-960D-56790C5676E4}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{5F5F6FF9-A5AD-4607-91E4-89633B26F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C82BBA03-F284-4E90-BC75-50CBE64E3A43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90CA5EE5-1700-4948-BD90-0C04A83AA8CD}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J14" s="39" t="s">
         <v>32</v>
@@ -1342,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="62">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J15" s="62" t="s">
         <v>32</v>
